--- a/rest.xlsx
+++ b/rest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mason\Documents\git_projects\Restaurants\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1851F68-4C69-4123-B287-A8896EAD2C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C737ED5-F38F-4646-B178-209610F250FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="345" windowWidth="28695" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>№</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>Avanti</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="3">
-        <f>SUMPRODUCT(D2:I2,Вес!$A$1:$F$1)</f>
+        <f>IF(G2="",SUMPRODUCT(D2:I2,Вес!$A$1:$F$1)*2,SUMPRODUCT(D2:I2,Вес!$A$1:$F$1))</f>
         <v>7.875</v>
       </c>
       <c r="L2" s="2"/>
@@ -524,14 +527,38 @@
         <v>5</v>
       </c>
       <c r="J3" s="3">
-        <f>SUMPRODUCT(D3:I3,Вес!$A$1:$F$1)</f>
+        <f>IF(G3="",SUMPRODUCT(D3:I3,Вес!$A$1:$F$1)*2,SUMPRODUCT(D3:I3,Вес!$A$1:$F$1))</f>
         <v>4.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45843</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3">
+        <f>IF(G4="",SUMPRODUCT(D4:I4,Вес!$A$1:$F$1)*2,SUMPRODUCT(D4:I4,Вес!$A$1:$F$1))</f>
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J3" formulaRange="1"/>
+    <ignoredError sqref="J2:J4" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
